--- a/aluminium_indonesia.xlsx
+++ b/aluminium_indonesia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\FUTURE\Analysis\World Mining Data\world_mining_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FF4EAF2-232E-4ED4-B800-1A219DEABE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475DA656-1EB9-4903-8A7E-774CB560E4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{BF7B5997-0A56-4E29-B16C-7E4EC73705DD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BF7B5997-0A56-4E29-B16C-7E4EC73705DD}"/>
   </bookViews>
   <sheets>
     <sheet name="al_dev_status" sheetId="1" r:id="rId1"/>
@@ -1262,7 +1262,7 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="75" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1273,55 +1273,10 @@
     <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="77" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="75" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="10" xfId="76" applyFont="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="77" applyFont="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="75" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="10" xfId="76" applyFont="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="77" applyFont="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="75" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="10" xfId="76" applyFont="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="23" fillId="33" borderId="10" xfId="77" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="77" applyFont="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="75" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="10" xfId="76" applyFont="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="77" applyFont="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="75" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="10" xfId="76" applyFont="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="33" borderId="10" xfId="76" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="77" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="23" fillId="33" borderId="10" xfId="77" applyNumberFormat="1" applyFont="1">
@@ -1337,21 +1292,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="25" fillId="33" borderId="10" xfId="76" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="75" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="10" xfId="76" applyFont="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="33" borderId="10" xfId="76" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="77" applyFont="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="33" borderId="10" xfId="77" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1862,11 +1802,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA73690-0B33-4D8A-8A93-D0286BB7F645}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="BC1" workbookViewId="0">
-      <selection sqref="A1:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
@@ -2022,140 +1965,140 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
         <v>15412474</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="2">
         <v>15106109</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="2">
         <v>15723562</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="2">
         <v>15714987</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="2">
         <v>15939648</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
         <v>40428920</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <v>44378662</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <v>42803164</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="2">
         <v>44394140</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="2">
         <v>46001490</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
         <v>4022908</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>4291354</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>4022197</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="2">
         <v>4700867</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
         <v>5162931</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
         <v>680642</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>666925</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>665556</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="2">
         <v>571125</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="2">
         <v>564756</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
         <v>60544944</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>64443050</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>63214479</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="2">
         <v>65381119</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="2">
         <v>67668825</v>
       </c>
     </row>
@@ -2178,140 +2121,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
         <v>1096728</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="2">
         <v>1072156</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="2">
         <v>1034097</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="2">
         <v>1025303</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="2">
         <v>1028992</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
         <v>13727536</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="2">
         <v>13769925</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="2">
         <v>13389329</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="2">
         <v>13634753</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="2">
         <v>13584157</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
         <v>45211157</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="2">
         <v>49092278</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="2">
         <v>48391587</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="2">
         <v>49667967</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="2">
         <v>52437221</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
         <v>509523</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="2">
         <v>508691</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="2">
         <v>399466</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="2">
         <v>1053096</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="2">
         <v>618455</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
         <v>60544944</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="2">
         <v>64443050</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="2">
         <v>63214479</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="2">
         <v>65381119</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="2">
         <v>67668825</v>
       </c>
     </row>
@@ -2334,278 +2277,278 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
         <v>1402593</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="2">
         <v>1393892</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="2">
         <v>1378864</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="2">
         <v>1373191</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="2">
         <v>1354395</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
         <v>975192</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="2">
         <v>979306</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="2">
         <v>993457</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="2">
         <v>1200789</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="2">
         <v>1101577</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
         <v>41790918</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="2">
         <v>45674181</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="2">
         <v>44258289</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="2">
         <v>46030537</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="2">
         <v>47931900</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
         <v>33289600</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="2">
         <v>36831000</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="2">
         <v>35361600</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="2">
         <v>37080400</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="2">
         <v>38503200</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
         <v>2257220</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="2">
         <v>2204107</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="2">
         <v>2090562</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="2">
         <v>2024431</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="2">
         <v>1964929</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
         <v>2012988</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="2">
         <v>2026478</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="2">
         <v>1994616</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="2">
         <v>2021989</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="2">
         <v>2126857</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
         <v>4976238</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="2">
         <v>4784341</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="2">
         <v>4928987</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="2">
         <v>5127083</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="2">
         <v>5021343</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
         <v>1368939</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="2">
         <v>1163300</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="2">
         <v>1098634</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="2">
         <v>1004900</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="2">
         <v>1148279</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
         <v>3953008</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="2">
         <v>3821041</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="2">
         <v>3979803</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="2">
         <v>4145327</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="2">
         <v>4044550</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
         <v>9840960</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="2">
         <v>9757024</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="2">
         <v>9783855</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="2">
         <v>9916754</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="2">
         <v>9854201</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
         <v>1293495</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="2">
         <v>1285125</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="2">
         <v>1281756</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="2">
         <v>1288125</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="2">
         <v>1278756</v>
       </c>
     </row>
@@ -2625,1120 +2568,1120 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
         <v>431239</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="2">
         <v>439600</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="2">
         <v>438434</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="2">
         <v>309804</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="2">
         <v>338239</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
         <v>1487555</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="2">
         <v>1574239</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="2">
         <v>1569619</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="2">
         <v>1583400</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="2">
         <v>1558529</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
         <v>28500</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="2">
         <v>45390</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="2">
         <v>32700</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="2">
         <v>28560</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="2">
         <v>31000</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
         <v>981016</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="2">
         <v>1011101</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="2">
         <v>1365005</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="2">
         <v>1548500</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="2">
         <v>1561222</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
         <v>125536</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="2">
         <v>131508</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="2">
         <v>67690</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="2">
         <v>90037</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
         <v>801700</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="2">
         <v>659000</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="2">
         <v>650200</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="2">
         <v>685100</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="2">
         <v>771700</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
         <v>68598</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="2">
         <v>65900</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="2">
         <v>53200</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="2">
         <v>47500</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="2">
         <v>36400</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
         <v>3212124</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="2">
         <v>2924389</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="2">
         <v>2853771</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="2">
         <v>3118710</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="2">
         <v>3136704</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="15">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
         <v>33289600</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="2">
         <v>36831000</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="2">
         <v>35361600</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="2">
         <v>37080400</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="2">
         <v>38503200</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
         <v>298000</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="2">
         <v>267100</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="2">
         <v>290000</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="2">
         <v>268000</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="2">
         <v>270000</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="15">
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
         <v>426730</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="2">
         <v>390000</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="2">
         <v>401850</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="2">
         <v>417000</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="2">
         <v>430000</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2">
         <v>550000</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="2">
         <v>528900</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="2">
         <v>507934</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="2">
         <v>529056</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="2">
         <v>509193</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="15">
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
         <v>40500</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="2">
         <v>42867</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="2">
         <v>43908</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="2">
         <v>37566</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="2">
         <v>39239</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="15">
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2">
         <v>181700</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="2">
         <v>187465</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="2">
         <v>186903</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="2">
         <v>181708</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="2">
         <v>169775</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="15">
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2">
         <v>759988</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="2">
         <v>731478</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="2">
         <v>682616</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="2">
         <v>691989</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="2">
         <v>695857</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="15">
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
         <v>3400618</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="2">
         <v>3696181</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="2">
         <v>3635089</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="2">
         <v>3619237</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="2">
         <v>4012000</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="15">
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2">
         <v>215192</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="2">
         <v>219306</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="2">
         <v>233457</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="2">
         <v>220089</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="2">
         <v>200577</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="15">
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2">
         <v>337608</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="2">
         <v>304800</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="2">
         <v>258166</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="2">
         <v>424475</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="2">
         <v>543715</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2">
         <v>254000</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="2">
         <v>258400</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="2">
         <v>264895</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="2">
         <v>265665</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="2">
         <v>262361</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="15">
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2">
         <v>760000</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="2">
         <v>760000</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="2">
         <v>760000</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="2">
         <v>980700</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="2">
         <v>901000</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="15">
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2">
         <v>39379</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="2">
         <v>40163</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="2">
         <v>36522</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="2">
         <v>37208</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="2">
         <v>45214</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="15">
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2">
         <v>577495</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="2">
         <v>571125</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="2">
         <v>564756</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="2">
         <v>571125</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="2">
         <v>564756</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="15">
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2">
         <v>29300</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="2">
         <v>41300</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="2">
         <v>81100</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="2">
         <v>70600</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="2">
         <v>46700</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="15">
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2">
         <v>336740</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="2">
         <v>340678</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="2">
         <v>351481</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="2">
         <v>333314</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="2">
         <v>333135</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="15">
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2">
         <v>1253000</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="2">
         <v>1295000</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="2">
         <v>1312000</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="2">
         <v>1330000</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="2">
         <v>1431000</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="15">
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2">
         <v>252714</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="2">
         <v>379775</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="2">
         <v>390515</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="2">
         <v>396929</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="2">
         <v>395360</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="15">
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2">
         <v>620000</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="2">
         <v>616000</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="2">
         <v>627400</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="2">
         <v>631400</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="2">
         <v>634270</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="15">
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2">
         <v>282074</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="2">
         <v>282810</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="2">
         <v>280326</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="2">
         <v>271307</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="2">
         <v>293399</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="15">
+      <c r="B30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2">
         <v>3583000</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="2">
         <v>3774000</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="2">
         <v>3894400</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="2">
         <v>3928800</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="2">
         <v>3931000</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="15">
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2">
         <v>762068</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="2">
         <v>775500</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="2">
         <v>775561</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="2">
         <v>796004</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="2">
         <v>998915</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="15">
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2">
         <v>173492</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="2">
         <v>173721</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="2">
         <v>174794</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="2">
         <v>151875</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="2">
         <v>163995</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="15">
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2">
         <v>84424</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="2">
         <v>80511</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="2">
         <v>68255</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="2">
         <v>50185</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="2">
         <v>37867</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="15">
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2">
         <v>716000</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="2">
         <v>714000</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="2">
         <v>717000</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="2">
         <v>717000</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="2">
         <v>714000</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="15">
+      <c r="B35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="2">
         <v>360000</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="2">
         <v>350000</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="2">
         <v>230000</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="2">
         <v>200000</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="2">
         <v>190000</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="15">
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2">
         <v>123000</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="2">
         <v>125000</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="2">
         <v>120000</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="2">
         <v>117000</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="2">
         <v>124000</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="15">
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2">
         <v>103147</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="2">
         <v>95800</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="2">
         <v>100800</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="2">
         <v>84000</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="2">
         <v>61000</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="15">
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="2">
         <v>75523</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="2">
         <v>73291</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="2">
         <v>78100</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F38" s="2">
         <v>79600</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="2">
         <v>82000</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="15">
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="2">
         <v>2600000</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="2">
         <v>2640000</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="2">
         <v>2579000</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="2">
         <v>2505000</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="2">
         <v>2577680</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="15">
+      <c r="B40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="2">
         <v>46500</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="2">
         <v>44400</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="2">
         <v>39400</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="2">
         <v>35700</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="2">
         <v>37600</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="15">
+      <c r="B41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="2">
         <v>740884</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="2">
         <v>896652</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="2">
         <v>1126032</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="2">
         <v>1026617</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="2">
         <v>907846</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="15">
+      <c r="B42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="2">
         <v>136000</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="2">
         <v>64700</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="2">
         <v>10000</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="2">
         <v>9996</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="2">
         <v>38340</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="15">
+      <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2">
         <v>60544944</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="2">
         <v>64443050</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="2">
         <v>63214479</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="2">
         <v>65381119</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="2">
         <v>67668825</v>
       </c>
-      <c r="H43" s="15"/>
+      <c r="H43" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3750,1120 +3693,1128 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H43"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="17">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="18">
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
         <v>38503200</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="5">
         <v>56.899465891420455</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="5">
         <v>56.899465891420455</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="5">
         <v>3237.5492187289196</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="17">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="18">
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
         <v>4012000</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="5">
         <v>5.9288749287430367</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="5">
         <v>62.82834082016349</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="5">
         <v>35.151557920677746</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="17">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="18">
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
         <v>3931000</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="5">
         <v>5.8091743132823721</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="5">
         <v>68.637515133445859</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="5">
         <v>33.746506202099717</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="17">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="18">
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
         <v>3136704</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="5">
         <v>4.6353753002213356</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="5">
         <v>73.2728904336672</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="5">
         <v>21.486704173902037</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="17">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="18">
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
         <v>2577680</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="5">
         <v>3.809257808156119</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="5">
         <v>77.082148241823319</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="5">
         <v>14.51044504899836</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="17">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="18">
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
         <v>1561222</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="5">
         <v>2.3071510403793769</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="5">
         <v>79.3892992822027</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="5">
         <v>5.3229459231236413</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="17">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="18">
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
         <v>1558529</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="5">
         <v>2.303171364361654</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="5">
         <v>81.69247064656436</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="5">
         <v>5.3045983336155231</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="17">
-        <v>8</v>
-      </c>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="18">
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
         <v>1431000</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="5">
         <v>2.1147108731384061</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="5">
         <v>83.807181519702766</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="5">
         <v>4.4720020769698001</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="17">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="18">
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
         <v>998915</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="5">
         <v>1.4761819789245638</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="5">
         <v>85.283363498627324</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="5">
         <v>2.1791132349016413</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="17">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="18">
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2">
         <v>907846</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="5">
         <v>1.3416015425123755</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="5">
         <v>86.624965041139703</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="5">
         <v>1.7998946988715854</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="17">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="18">
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2">
         <v>901000</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="5">
         <v>1.3314846238278852</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="5">
         <v>87.956449664967593</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="5">
         <v>1.772851303490085</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="17">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="18">
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2">
         <v>771700</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="5">
         <v>1.1404069747036394</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="5">
         <v>89.09685663967123</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="5">
         <v>1.3005280679527071</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="17">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="18">
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2">
         <v>714000</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="5">
         <v>1.0551387585051166</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="5">
         <v>90.151995398176354</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="5">
         <v>1.1133177996997188</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="17">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="18">
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2">
         <v>695857</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="5">
         <v>1.0283272984273037</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="5">
         <v>91.180322696603653</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="5">
         <v>1.057457032690797</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="17">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="18">
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2">
         <v>634270</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="5">
         <v>0.93731493047204528</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="5">
         <v>92.117637627075695</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="5">
         <v>0.87855927888581509</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="18">
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2">
         <v>564756</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="5">
         <v>0.83458815784077822</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="5">
         <v>92.952225784916479</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="5">
         <v>0.69653739320806374</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="17">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="18">
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2">
         <v>543715</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="5">
         <v>0.80349407574315057</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="5">
         <v>93.755719860659624</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="5">
         <v>0.64560272975433974</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="17">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="18">
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2">
         <v>509193</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="5">
         <v>0.75247796899089059</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="5">
         <v>94.508197829650513</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="5">
         <v>0.5662230938166557</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="17">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="18">
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2">
         <v>430000</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="5">
         <v>0.63544771170476211</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="5">
         <v>95.143645541355269</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="5">
         <v>0.40379379431081847</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="17">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="18">
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2">
         <v>395360</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="5">
         <v>0.58425722627812737</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="5">
         <v>95.727902767633395</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="5">
         <v>0.34135650645821092</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="17">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="18">
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2">
         <v>338239</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="5">
         <v>0.49984464781234195</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="5">
         <v>96.227747415445734</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="5">
         <v>0.24984467194664417</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="17">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="18">
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2">
         <v>333135</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="5">
         <v>0.49230203125294403</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="5">
         <v>96.720049446698681</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="5">
         <v>0.24236128997577469</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="17">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="18">
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2">
         <v>293399</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="5">
         <v>0.43358075154991976</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="5">
         <v>97.153630198248607</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="5">
         <v>0.18799226811459324</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="17">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="18">
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2">
         <v>270000</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="5">
         <v>0.3990020515355483</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="5">
         <v>97.552632249784153</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="5">
         <v>0.15920263712957633</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="17">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="18">
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2">
         <v>262361</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="5">
         <v>0.38771324904784443</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="5">
         <v>97.940345498832002</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="5">
         <v>0.15032156348723585</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="17">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="18">
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2">
         <v>200577</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="5">
         <v>0.2964097573735025</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="5">
         <v>98.236755256205498</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="5">
         <v>8.7858744266218619E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="17">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="18">
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2">
         <v>190000</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="5">
         <v>0.28077922145094142</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="5">
         <v>98.51753447765644</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="5">
         <v>7.8836971198596797E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="17">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="18">
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2">
         <v>169775</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="5">
         <v>0.25089101222017673</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="5">
         <v>98.76842548987662</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="5">
         <v>6.2946300012864873E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="17">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="18">
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2">
         <v>163995</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="5">
         <v>0.24234941274656388</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="5">
         <v>99.010774902623183</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="5">
         <v>5.8733237858604383E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="17">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="18">
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2">
         <v>124000</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="5">
         <v>0.18324538663114071</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="5">
         <v>99.194020289254325</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="5">
         <v>3.3578871721596237E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="17">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="18">
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2">
         <v>90037</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="5">
         <v>0.13305536190409689</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="5">
         <v>99.327075651158424</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="5">
         <v>1.7703729331430197E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="17">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="18">
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2">
         <v>82000</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="5">
         <v>0.12117840083672209</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="5">
         <v>99.44825405199515</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="5">
         <v>1.4684204829345288E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="17">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="18">
+      <c r="D34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="2">
         <v>61000</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="5">
         <v>9.0144907939512769E-2</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="5">
         <v>99.538398959934668</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="5">
         <v>8.1261044274232325E-3</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="17">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="18">
+      <c r="D35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="2">
         <v>46700</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="5">
         <v>6.9012577061889277E-2</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="5">
         <v>99.607411536996551</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="5">
         <v>4.7627357927232062E-3</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="17">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="18">
+      <c r="D36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="2">
         <v>45214</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="5">
         <v>6.6816587993067708E-2</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="5">
         <v>99.674228124989625</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="5">
         <v>4.4644564310353596E-3</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="17">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="18">
+      <c r="D37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="2">
         <v>39239</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="5">
         <v>5.7986820371123633E-2</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="5">
         <v>99.732214945360752</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H37" s="5">
         <v>3.362471336752959E-3</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="17">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="18">
+      <c r="D38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2">
         <v>38340</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="5">
         <v>5.6658291318047858E-2</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G38" s="5">
         <v>99.788873236678796</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="5">
         <v>3.2101619750807774E-3</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="17">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="18">
+      <c r="D39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="2">
         <v>37867</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="5">
         <v>5.5959298835172623E-2</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="5">
         <v>99.844832535513973</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="5">
         <v>3.1314431261241522E-3</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="17">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="18">
+      <c r="D40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2">
         <v>37600</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="5">
         <v>5.5564730139765248E-2</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="5">
         <v>99.900397265653737</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="5">
         <v>3.0874392355049367E-3</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="17">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="18">
+      <c r="D41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="2">
         <v>36400</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41" s="5">
         <v>5.3791387688496145E-2</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="5">
         <v>99.954188653342229</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H41" s="5">
         <v>2.8935133894540947E-3</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="17">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="18">
+      <c r="D42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2">
         <v>31000</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="5">
         <v>4.5811346657785176E-2</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G42" s="5">
         <v>100.00000000000001</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H42" s="5">
         <v>2.0986794825997648E-3</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="22"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="23">
+      <c r="D43" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="8">
         <v>67668825</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="9">
         <v>100</v>
       </c>
-      <c r="G43" s="24"/>
-      <c r="H43" s="25">
+      <c r="G43" s="9"/>
+      <c r="H43" s="10">
         <v>3371.6784148374154</v>
       </c>
     </row>
@@ -4876,674 +4827,674 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E221C2-ECE7-426C-9B31-41C731BF6993}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="2">
         <v>1075800</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="2">
         <v>600000</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="2">
         <v>1379300</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="2">
         <v>2951100</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="2">
         <v>3300000</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="5">
         <v>206.74846625766872</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="5">
         <v>11.822710175866618</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="2">
         <v>350</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="2">
         <v>350</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="2">
         <v>350</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="2">
         <v>1000</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="2">
         <v>2100</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="5">
         <v>500</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="5">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="2">
         <v>24000</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="2">
         <v>24000</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="2">
         <v>24000</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="2">
         <v>23500</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="2">
         <v>40000</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="5">
         <v>66.666666666666657</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="5">
         <v>70.212765957446805</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="2">
         <v>363000</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="2">
         <v>651600</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="2">
         <v>1036200</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="2">
         <v>816700</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="2">
         <v>1173200</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="5">
         <v>223.19559228650132</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="5">
         <v>43.651279539610641</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="2">
         <v>215192</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="2">
         <v>219306</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="2">
         <v>233457</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="2">
         <v>220089</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="2">
         <v>200577</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="5">
         <v>-6.7916093535075674</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="5">
         <v>-8.8655044095797564</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="2">
         <v>1733380</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="2">
         <v>11023850</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="2">
         <v>16592740</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="2">
         <v>25859895</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="2">
         <v>25781187</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="5">
         <v>1387.3361294119004</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="5">
         <v>-0.30436318476930069</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="2">
         <v>621979</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="2">
         <v>651132</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="2">
         <v>351220</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="2">
         <v>505650</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="2">
         <v>731060</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="5">
         <v>17.53773037353352</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="5">
         <v>44.578265598734305</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="2">
         <v>7635</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="2">
         <v>10880</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="2">
         <v>9450</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="2">
         <v>7090</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="2">
         <v>6735</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="5">
         <v>-11.787819253438116</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="5">
         <v>-5.0070521861777166</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="2">
         <v>78070</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="2">
         <v>82809</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="2">
         <v>76390</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="2">
         <v>52617</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="2">
         <v>34466</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="5">
         <v>-55.85244011784296</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="5">
         <v>-34.496455518178536</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="2">
         <v>13800</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="2">
         <v>21100</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="2">
         <v>25215</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="2">
         <v>20390</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="2">
         <v>14780</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="5">
         <v>7.1014492753623131</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="5">
         <v>-27.513487003433056</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="2">
         <v>101510</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="2">
         <v>135250</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="2">
         <v>108900</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="2">
         <v>66190</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="2">
         <v>72660</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="5">
         <v>-28.420845236922474</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="5">
         <v>9.7748904668378884</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="2">
         <v>328780</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="2">
         <v>308810</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="2">
         <v>487400</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="2">
         <v>338100</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="2">
         <v>295920</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="5">
         <v>-9.9945252144291032</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="5">
         <v>-12.475598935226273</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="2">
         <v>2601000</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="2">
         <v>749300</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="2">
         <v>480800</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="2">
         <v>287400</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="2">
         <v>313200</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="5">
         <v>-87.958477508650518</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="5">
         <v>8.9770354906054308</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="2">
         <v>736600</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="2">
         <v>1368400</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="2">
         <v>2754600</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="2">
         <v>1636000</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="2">
         <v>1568000</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="5">
         <v>112.86994298126527</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="5">
         <v>-4.1564792176039163</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="2">
         <v>1021321</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="2">
         <v>2719256</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="2">
         <v>2852125</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="2">
         <v>1365711</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="2">
         <v>1100000</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="5">
         <v>7.7036504683640175</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="5">
         <v>-19.455873167895689</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="2">
         <v>500000</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="2">
         <v>500000</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="2">
         <v>500000</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="2">
         <v>500000</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="2">
         <v>500000</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="5">
         <v>0</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="2">
         <v>29500</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="2">
         <v>53700</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="2">
         <v>73100</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="2">
         <v>77200</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="2">
         <v>54630</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="5">
         <v>85.18644067796609</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="5">
         <v>-29.235751295336783</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="2">
         <v>490409256</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="2">
         <v>543919000</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="2">
         <v>594796500</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="2">
         <v>561979900</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="2">
         <v>564815700</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="5">
         <v>15.172316405055781</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="5">
         <v>0.50460879472736053</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="2">
         <v>4300000</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="2">
         <v>5117786</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="2">
         <v>5752018</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="2">
         <v>4000000</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="2">
         <v>4356640</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="5">
         <v>1.3172093023255798</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="5">
         <v>8.916000000000011</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="2">
         <v>72270</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="2">
         <v>72570</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="2">
         <v>67160</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="2">
         <v>59180</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="2">
         <v>58960</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="5">
         <v>-18.417047184170471</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="5">
         <v>-0.37174721189590798</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="2">
         <v>39879800</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="2">
         <v>38434800</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="2">
         <v>37104200</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="2">
         <v>35367913</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="2">
         <v>32786100</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="5">
         <v>-17.787702044644149</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="5">
         <v>-7.2998737584544529</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="2">
         <v>601427114</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="2">
         <v>664203713</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="2">
         <v>717770261</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="2">
         <v>683016559</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="2">
         <v>683946744</v>
       </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
